--- a/aangepast_overzicht.xlsx
+++ b/aangepast_overzicht.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stijn\Desktop\3DMiB- Data Driven Decisionmaking in Business\FSDV Storytelling with Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stijn\Documents\GitHub\Storytelling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F3B190-4BB7-4B70-8825-1FB4123458D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E7B8D5-39FC-4D0B-986F-6DDEE34BE2AC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F8587AC9-77B1-4330-B01A-D7D54370C1E4}"/>
+    <workbookView xWindow="1650" yWindow="195" windowWidth="28800" windowHeight="15330" xr2:uid="{F8587AC9-77B1-4330-B01A-D7D54370C1E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Aangepast overzicht" sheetId="2" r:id="rId1"/>
@@ -26,10 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="11">
-  <si>
-    <t>Gross margin</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="10">
   <si>
     <t>Food &amp; Groceries</t>
   </si>
@@ -49,16 +46,16 @@
     <t>x</t>
   </si>
   <si>
-    <t>A - Realized revenue</t>
-  </si>
-  <si>
     <t>C - Gross margin</t>
   </si>
   <si>
-    <t>B - Cost of goods sold</t>
-  </si>
-  <si>
     <t>z</t>
+  </si>
+  <si>
+    <t>A- Cost of goods sold</t>
+  </si>
+  <si>
+    <t>B - Gross margin</t>
   </si>
 </sst>
 </file>
@@ -108,12 +105,13 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -431,192 +429,146 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E82CE96-9653-4F71-9C4F-0FBE60DA4494}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="C1" sqref="C1:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="24" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="5">
         <f>18510*26</f>
         <v>481260</v>
       </c>
       <c r="C2" s="3">
-        <f>B2/B4</f>
-        <v>0.41367963939059488</v>
+        <v>0.41</v>
       </c>
       <c r="D2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5">
+        <v>682104</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.59</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5">
-        <f>B4-B2</f>
-        <v>682104</v>
-      </c>
-      <c r="C3" s="4">
-        <f>C4-C2</f>
-        <v>0.58632036060940518</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="5">
-        <f>1297902-134538</f>
-        <v>1163364</v>
-      </c>
-      <c r="C4" s="4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="5">
         <f>10084*26</f>
         <v>262184</v>
       </c>
-      <c r="C5" s="3">
-        <f>B5/B7</f>
-        <v>0.42999170140813653</v>
+      <c r="C4" s="3">
+        <v>0.43</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5">
+        <v>347558</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.56999999999999995</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="5">
-        <f>B7-B5</f>
-        <v>347558</v>
-      </c>
-      <c r="C6" s="4">
-        <f>C7-C5</f>
-        <v>0.57000829859186353</v>
+        <f>12089*26</f>
+        <v>314314</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.46</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="5">
-        <f>632821-23079</f>
-        <v>609742</v>
+        <v>373428</v>
       </c>
       <c r="C7" s="4">
-        <v>1</v>
+        <v>0.54</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="5">
-        <f>12089*26</f>
-        <v>314314</v>
-      </c>
-      <c r="C8" s="3">
-        <f>B8/B10</f>
-        <v>0.45702312785899363</v>
-      </c>
-      <c r="D8" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="5">
-        <f>B10-B8</f>
-        <v>373428</v>
-      </c>
-      <c r="C9" s="4">
-        <f>C10-C8</f>
-        <v>0.54297687214100643</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="5">
-        <f>698240-10498</f>
-        <v>687742</v>
-      </c>
-      <c r="C10" s="3">
-        <f>100%</f>
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F14" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F16" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="6"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G14" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G16" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -625,60 +577,73 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABEECD2F-A7B4-4023-9DD0-42DF3B7D2886}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>18510</v>
+        <v>0</v>
+      </c>
+      <c r="B2" s="5">
+        <f>18510*26</f>
+        <v>481260</v>
       </c>
       <c r="C2" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>10084</v>
+        <v>1</v>
+      </c>
+      <c r="B3" s="5">
+        <f>10084*26</f>
+        <v>262184</v>
       </c>
       <c r="C3" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>12089</v>
+        <v>2</v>
+      </c>
+      <c r="B4" s="5">
+        <f>12089*26</f>
+        <v>314314</v>
       </c>
       <c r="C4" t="s">
-        <v>0</v>
-      </c>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="6"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="6"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
